--- a/data/output/FV2504_FV2410/ORDERS/17001.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="260">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="260">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -904,6 +904,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U101" totalsRowShown="0">
+  <autoFilter ref="A1:U101"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1193,7 +1223,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5651,5 +5684,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17001.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="359">
   <si>
     <t>#</t>
   </si>
@@ -2670,44 +2670,42 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V23" s="5"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
@@ -2878,44 +2876,42 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5" t="s">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V27" s="5"/>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="5" t="s">
@@ -3086,44 +3082,42 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M31" s="5" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5" t="s">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V31" s="5"/>
+      <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="5" t="s">
@@ -3373,9 +3367,7 @@
         <v>212</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>29</v>
       </c>
@@ -3429,9 +3421,7 @@
         <v>212</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>29</v>
       </c>
@@ -3458,44 +3448,42 @@
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M38" s="5" t="s">
+      <c r="K38" s="2"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5" t="s">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V38" s="5"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -3851,9 +3839,7 @@
         <v>220</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>31</v>
       </c>
@@ -3907,9 +3893,7 @@
         <v>220</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="5" t="s">
         <v>31</v>
       </c>
@@ -3963,9 +3947,7 @@
         <v>220</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="5" t="s">
         <v>31</v>
       </c>
@@ -4019,9 +4001,7 @@
         <v>220</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="5" t="s">
         <v>31</v>
       </c>
@@ -4048,44 +4028,42 @@
       <c r="V48" s="5"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M49" s="5" t="s">
+      <c r="K49" s="2"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N49" s="5" t="s">
+      <c r="N49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5" t="s">
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V49" s="5"/>
+      <c r="V49" s="2"/>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="5" t="s">
@@ -4331,9 +4309,7 @@
         <v>212</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>32</v>
       </c>
@@ -4387,9 +4363,7 @@
         <v>212</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>32</v>
       </c>
@@ -5842,44 +5816,42 @@
       <c r="V89" s="5"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="K90" s="2"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5" t="s">
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V90" s="5"/>
+      <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">

--- a/data/output/FV2504_FV2410/ORDERS/17001.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17001.xlsx
@@ -1191,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1213,6 +1213,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1658,7 +1661,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2022,7 +2025,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2168,7 +2171,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2372,7 +2375,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2556,24 +2559,24 @@
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M20" s="5"/>
@@ -2591,31 +2594,31 @@
       <c r="A21" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9" t="s">
+      <c r="J21" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M21" s="5"/>
@@ -2633,29 +2636,29 @@
       <c r="A22" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9" t="s">
+      <c r="J22" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M22" s="5"/>
@@ -2690,7 +2693,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2896,7 +2899,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3102,7 +3105,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3468,7 +3471,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3646,52 +3649,52 @@
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="2"/>
       <c r="L42" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P42" s="5"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5" t="s">
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V42" s="5"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
@@ -4048,7 +4051,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4390,32 +4393,32 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="2"/>
       <c r="L56" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="2" t="s">
         <v>46</v>
       </c>
       <c r="O56" s="6" t="s">
@@ -4427,39 +4430,39 @@
       <c r="Q56" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
       <c r="U56" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M57" s="5"/>
@@ -4477,29 +4480,29 @@
       <c r="A58" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M58" s="5"/>
@@ -4517,27 +4520,27 @@
       <c r="A59" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
+      <c r="E59" s="9"/>
+      <c r="F59" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9" t="s">
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M59" s="5"/>
@@ -4555,29 +4558,29 @@
       <c r="A60" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8" t="s">
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M60" s="5"/>
@@ -4595,33 +4598,33 @@
       <c r="A61" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L61" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M61" s="5"/>
@@ -4642,20 +4645,20 @@
       <c r="B62" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8" t="s">
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M62" s="5"/>
@@ -4673,27 +4676,27 @@
       <c r="A63" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="9" t="s">
+      <c r="K63" s="9"/>
+      <c r="L63" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M63" s="5"/>
@@ -4711,33 +4714,33 @@
       <c r="A64" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8" t="s">
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9" t="s">
+      <c r="J64" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M64" s="5"/>
@@ -4755,33 +4758,33 @@
       <c r="A65" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8" t="s">
+      <c r="H65" s="9"/>
+      <c r="I65" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J65" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9" t="s">
+      <c r="J65" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M65" s="5"/>
@@ -4799,33 +4802,33 @@
       <c r="A66" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8" t="s">
+      <c r="H66" s="9"/>
+      <c r="I66" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="9" t="s">
+      <c r="J66" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M66" s="5"/>
@@ -4840,21 +4843,21 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
       <c r="J67" s="6" t="s">
         <v>211</v>
       </c>
@@ -4862,18 +4865,18 @@
       <c r="L67" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
       <c r="U67" s="6" t="s">
         <v>259</v>
       </c>
@@ -4993,33 +4996,33 @@
       <c r="A70" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="J70" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="K70" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L70" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M70" s="5"/>
@@ -5037,33 +5040,33 @@
       <c r="A71" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8" t="s">
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9" t="s">
+      <c r="J71" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M71" s="5"/>
@@ -5084,24 +5087,24 @@
       <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8" t="s">
+      <c r="E72" s="9"/>
+      <c r="F72" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8" t="s">
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K72" s="8"/>
-      <c r="L72" s="9" t="s">
+      <c r="K72" s="9"/>
+      <c r="L72" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M72" s="5"/>
@@ -5119,33 +5122,33 @@
       <c r="A73" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8" t="s">
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="9" t="s">
+      <c r="J73" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M73" s="5"/>
@@ -5163,33 +5166,33 @@
       <c r="A74" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8" t="s">
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="K74" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="L74" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M74" s="5"/>
@@ -5207,33 +5210,33 @@
       <c r="A75" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8" t="s">
+      <c r="H75" s="9"/>
+      <c r="I75" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="J75" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="9" t="s">
+      <c r="J75" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M75" s="5"/>
@@ -5254,24 +5257,24 @@
       <c r="B76" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8" t="s">
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="9" t="s">
+      <c r="K76" s="9"/>
+      <c r="L76" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M76" s="5"/>
@@ -5289,33 +5292,33 @@
       <c r="A77" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8" t="s">
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J77" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K77" s="8"/>
-      <c r="L77" s="9" t="s">
+      <c r="J77" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M77" s="5"/>
@@ -5333,33 +5336,33 @@
       <c r="A78" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="K78" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L78" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M78" s="5"/>
@@ -5380,24 +5383,24 @@
       <c r="B79" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9" t="s">
+      <c r="K79" s="9"/>
+      <c r="L79" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M79" s="5"/>
@@ -5415,31 +5418,31 @@
       <c r="A80" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8" t="s">
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M80" s="5"/>
@@ -5457,31 +5460,31 @@
       <c r="A81" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="J81" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M81" s="5"/>
@@ -5502,20 +5505,20 @@
       <c r="B82" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8" t="s">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="9" t="s">
+      <c r="K82" s="9"/>
+      <c r="L82" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M82" s="5"/>
@@ -5533,27 +5536,27 @@
       <c r="A83" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="9" t="s">
+      <c r="K83" s="9"/>
+      <c r="L83" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M83" s="5"/>
@@ -5571,33 +5574,33 @@
       <c r="A84" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8" t="s">
+      <c r="H84" s="9"/>
+      <c r="I84" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9" t="s">
+      <c r="J84" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M84" s="5"/>
@@ -5615,33 +5618,33 @@
       <c r="A85" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="L85" s="9" t="s">
+      <c r="L85" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M85" s="5"/>
@@ -5662,22 +5665,22 @@
       <c r="B86" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8" t="s">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="K86" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="L86" s="9" t="s">
+      <c r="L86" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M86" s="5"/>
@@ -5695,27 +5698,27 @@
       <c r="A87" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
+      <c r="E87" s="9"/>
+      <c r="F87" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8" t="s">
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="9" t="s">
+      <c r="K87" s="9"/>
+      <c r="L87" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M87" s="5"/>
@@ -5733,33 +5736,33 @@
       <c r="A88" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8" t="s">
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9" t="s">
+      <c r="J88" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K88" s="9"/>
+      <c r="L88" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M88" s="5"/>
@@ -5777,31 +5780,31 @@
       <c r="A89" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J89" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="J89" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M89" s="5"/>
@@ -5836,7 +5839,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6022,48 +6025,48 @@
       </c>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="2"/>
       <c r="F94" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5" t="s">
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K94" s="5"/>
+      <c r="K94" s="2"/>
       <c r="L94" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="M94" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5" t="s">
+      <c r="N94" s="2"/>
+      <c r="O94" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P94" s="5"/>
+      <c r="P94" s="2"/>
       <c r="Q94" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5" t="s">
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V94" s="5"/>
+      <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -6124,22 +6127,22 @@
       <c r="B96" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8" t="s">
+      <c r="C96" s="9"/>
+      <c r="D96" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
+      <c r="E96" s="9"/>
+      <c r="F96" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8" t="s">
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M96" s="5"/>
@@ -6157,31 +6160,31 @@
       <c r="A97" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8" t="s">
+      <c r="C97" s="9"/>
+      <c r="D97" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8" t="s">
+      <c r="H97" s="9"/>
+      <c r="I97" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="J97" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="J97" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M97" s="5"/>
@@ -6199,31 +6202,31 @@
       <c r="A98" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8" t="s">
+      <c r="C98" s="9"/>
+      <c r="D98" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="J98" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="K98" s="8" t="s">
+      <c r="K98" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="L98" s="9" t="s">
+      <c r="L98" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M98" s="5"/>
@@ -6238,48 +6241,48 @@
       <c r="V98" s="5"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5" t="s">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="2"/>
       <c r="F99" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5" t="s">
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K99" s="5"/>
+      <c r="K99" s="2"/>
       <c r="L99" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M99" s="5" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5" t="s">
+      <c r="N99" s="2"/>
+      <c r="O99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P99" s="5"/>
+      <c r="P99" s="2"/>
       <c r="Q99" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5" t="s">
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V99" s="5"/>
+      <c r="V99" s="2"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
